--- a/data/case1/18/V1_3.xlsx
+++ b/data/case1/18/V1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999708287057</v>
+        <v>0.9999999914890052</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.995542649654093</v>
+        <v>0.99529476263550665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97538033875753372</v>
+        <v>0.97572954008513291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96756520147826885</v>
+        <v>0.96715682158861949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9602264423392648</v>
+        <v>0.95903430687608127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94496006495300278</v>
+        <v>0.94157426306775893</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94260696119416221</v>
+        <v>0.93998085102697304</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94191151770908221</v>
+        <v>0.93757974530202848</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94373484407285813</v>
+        <v>0.93780492873471677</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94655885533766448</v>
+        <v>0.93898535704265718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94726710203329456</v>
+        <v>0.93922200094414643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94887334535942303</v>
+        <v>0.93992950782737705</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95710851440041433</v>
+        <v>0.94608310000620266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9611406613851734</v>
+        <v>0.94263435225300229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.96662461782274223</v>
+        <v>0.94011855699050373</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.97392012704145015</v>
+        <v>0.93737663994980269</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.99000524817461821</v>
+        <v>0.93366897440136387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.99876249715048382</v>
+        <v>0.93256008371255428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99448939145271587</v>
+        <v>0.99361000467946581</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98737219719549563</v>
+        <v>0.9864930645473875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98597368294037058</v>
+        <v>0.98509459569416435</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98470917418953063</v>
+        <v>0.98383009255370246</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96834482760499574</v>
+        <v>0.96869417014934256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95532323485773518</v>
+        <v>0.95567270074325683</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94886611180992031</v>
+        <v>0.94921561368978447</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94236507608659581</v>
+        <v>0.93897769746669468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93852083093077265</v>
+        <v>0.93560643177887581</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92345241977875481</v>
+        <v>0.9235180129779601</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91290838605422886</v>
+        <v>0.91519724302901007</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90803433209757767</v>
+        <v>0.91115196619159888</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.90681874940312901</v>
+        <v>0.91299042772060668</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.90757107011486249</v>
+        <v>0.91489579463347492</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.91063680981159978</v>
+        <v>0.91437579344280095</v>
       </c>
     </row>
   </sheetData>
